--- a/配置文档/声音相关/音效配置.xlsx
+++ b/配置文档/声音相关/音效配置.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17640" windowHeight="7275"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
-    <sheet name="cfg_SoundEffect_音效配置" sheetId="3" r:id="rId1"/>
-    <sheet name="数据类型" sheetId="2" r:id="rId2"/>
+    <sheet name="cfg_UISoundSfx_UI音效配置" sheetId="4" r:id="rId1"/>
+    <sheet name="cfg_SoundSfx_音效配置" sheetId="3" r:id="rId2"/>
+    <sheet name="数据类型" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="1">数据类型!#REF!</definedName>
-    <definedName name="数据类型_Sheet1" localSheetId="1">数据类型!#REF!</definedName>
-    <definedName name="连接" localSheetId="1">数据类型!$A$1:$E$38</definedName>
+    <definedName name="ExternalData_1" localSheetId="2">数据类型!#REF!</definedName>
+    <definedName name="数据类型_Sheet1" localSheetId="2">数据类型!#REF!</definedName>
+    <definedName name="连接" localSheetId="2">数据类型!$A$1:$E$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,25 +42,119 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="105">
-  <si>
-    <t>该表用于模板，创建新配置表就复制这个
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="131">
+  <si>
+    <t>该表用于配置 UI界面的各组件，点击等效果的音效,注意一个ui组件可以多个分组
 数据不想填就写 #BASEVALUE</t>
   </si>
   <si>
+    <t>UI组件分组名称</t>
+  </si>
+  <si>
+    <t>音效文件名称</t>
+  </si>
+  <si>
+    <t>组件类型
+0 任何ui
+1 按钮 Button
+2 纹理按钮 TextureButton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI组件的触发事件列表
+1 点击事件 
+仅对按钮类（Button TextureButton等）有效果
+2 组件获得焦点
+3 失去焦点
+4 鼠标进入组件
+5 鼠标离开控件 
+</t>
+  </si>
+  <si>
+    <t>音效文件路径
+.\assets\sound\下的路径</t>
+  </si>
+  <si>
+    <t>字段导出设置</t>
+  </si>
+  <si>
+    <t>字段名称</t>
+  </si>
+  <si>
+    <t>UIName</t>
+  </si>
+  <si>
+    <t>SfxName</t>
+  </si>
+  <si>
+    <t>UIType</t>
+  </si>
+  <si>
+    <t>EventIdList</t>
+  </si>
+  <si>
+    <t>SoundPath</t>
+  </si>
+  <si>
+    <t>数据类型</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>&lt;INT&gt;</t>
+  </si>
+  <si>
+    <t>button_sfx</t>
+  </si>
+  <si>
+    <t>按钮音效</t>
+  </si>
+  <si>
+    <t>按钮音效/主界面按钮音效1.ogg</t>
+  </si>
+  <si>
+    <t>texture_button_sfx</t>
+  </si>
+  <si>
+    <t>纹理按钮音效</t>
+  </si>
+  <si>
+    <t>texture_button_sfx2</t>
+  </si>
+  <si>
+    <t>纹理按钮音效2</t>
+  </si>
+  <si>
+    <t>该表用于配置 单位武器等音效
+数据不想填就写 #BASEVALUE</t>
+  </si>
+  <si>
     <t>音效文件Id,字符串</t>
   </si>
   <si>
-    <t>音效文件名称</t>
-  </si>
-  <si>
     <t>音效文件路径</t>
   </si>
   <si>
-    <t>字段导出设置</t>
-  </si>
-  <si>
-    <t>字段名称</t>
+    <t>0 用户界面音效
+1 游戏玩法音效
+2 环境音效
+3 特殊音效</t>
+  </si>
+  <si>
+    <t>音量（分贝）</t>
+  </si>
+  <si>
+    <t>音高最小值
+（用于随机变化）</t>
+  </si>
+  <si>
+    <t>音高最大值（用于随机变化）</t>
+  </si>
+  <si>
+    <t>最大同时播放实例数</t>
   </si>
   <si>
     <t>SoundId</t>
@@ -68,13 +163,22 @@
     <t>SoundName</t>
   </si>
   <si>
-    <t>SoundPath</t>
-  </si>
-  <si>
-    <t>数据类型</t>
-  </si>
-  <si>
-    <t>STR</t>
+    <t>BusType</t>
+  </si>
+  <si>
+    <t>VolumeDb</t>
+  </si>
+  <si>
+    <t>PitchMin</t>
+  </si>
+  <si>
+    <t>PitchMax</t>
+  </si>
+  <si>
+    <t>MaxInstances</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
   </si>
   <si>
     <t>数据类型编号</t>
@@ -116,9 +220,6 @@
     <t>11112      -21232</t>
   </si>
   <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>整数类型，适合在大多数时候用于保存配置id，-2147483648到2147483647</t>
   </si>
   <si>
@@ -134,9 +235,6 @@
     <t>52122122111111</t>
   </si>
   <si>
-    <t>FLOAT</t>
-  </si>
-  <si>
     <t>单精度浮点型，整数部分范围很大，小数部分，float的精度为6~7位有效数字，绝对能保证6位小数正常</t>
   </si>
   <si>
@@ -168,9 +266,6 @@
   </si>
   <si>
     <t>123|121|434|-121</t>
-  </si>
-  <si>
-    <t>&lt;INT&gt;</t>
   </si>
   <si>
     <t>整数列表，用于保存一个由整数组成的列表</t>
@@ -369,7 +464,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +475,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -856,144 +958,141 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1005,16 +1104,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1342,77 +1450,163 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="43.375" customWidth="1"/>
-    <col min="2" max="4" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="43.375" style="11" customWidth="1"/>
+    <col min="2" max="3" width="20.5" style="11" customWidth="1"/>
+    <col min="4" max="5" width="27.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="33.25" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="57" spans="1:4">
+    <row r="1" ht="128.25" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" s="5" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A2" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9">
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10">
         <v>1</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="10">
         <v>2</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="10">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="9" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" s="5" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A4" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>10</v>
+      <c r="E3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="11">
+        <v>2</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="11">
+        <v>1</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="11">
+        <v>2</v>
+      </c>
+      <c r="E7" s="11">
+        <v>4</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:F4">
       <formula1>数据类型!$B$2:$B$51</formula1>
     </dataValidation>
   </dataValidations>
@@ -1422,6 +1616,153 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="43.375" style="5" customWidth="1"/>
+    <col min="2" max="4" width="20.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="35.5" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+    <col min="9" max="9" width="18.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="1" ht="57" spans="1:9">
+      <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" spans="1:9">
+      <c r="A2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2" s="10">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10">
+        <v>2</v>
+      </c>
+      <c r="H2" s="10">
+        <v>2</v>
+      </c>
+      <c r="I2" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" spans="1:9">
+      <c r="A3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:9">
+      <c r="A4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:I4">
+      <formula1>数据类型!$B$2:$B$51</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E38"/>
@@ -1440,19 +1781,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1460,16 +1801,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1477,16 +1818,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1494,16 +1835,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1511,16 +1852,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1528,16 +1869,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1545,14 +1886,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1560,16 +1901,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1577,16 +1918,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1594,16 +1935,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1611,16 +1952,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1628,16 +1969,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1645,13 +1986,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1659,10 +2000,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1670,10 +2011,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1681,10 +2022,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1692,10 +2033,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1703,10 +2044,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1714,10 +2055,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1725,10 +2066,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1736,10 +2077,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1747,10 +2088,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1758,10 +2099,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1769,10 +2110,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1780,10 +2121,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1791,16 +2132,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1808,16 +2149,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1825,16 +2166,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1842,16 +2183,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1859,13 +2200,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1873,16 +2214,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1890,16 +2231,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1907,16 +2248,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1924,16 +2265,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1941,16 +2282,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1958,14 +2299,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1973,28 +2314,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>104</v>
+      <c r="B38" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
